--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itga8.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itga8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.375860598353964</v>
+        <v>0.388946</v>
       </c>
       <c r="N2">
-        <v>0.375860598353964</v>
+        <v>0.777892</v>
       </c>
       <c r="O2">
-        <v>0.03879410748625375</v>
+        <v>0.03708650906155245</v>
       </c>
       <c r="P2">
-        <v>0.03879410748625375</v>
+        <v>0.03370939550185763</v>
       </c>
       <c r="Q2">
-        <v>14.84956521657675</v>
+        <v>15.843698001903</v>
       </c>
       <c r="R2">
-        <v>14.84956521657675</v>
+        <v>63.374792007612</v>
       </c>
       <c r="S2">
-        <v>0.002649604388806071</v>
+        <v>0.002064929295898842</v>
       </c>
       <c r="T2">
-        <v>0.002649604388806071</v>
+        <v>0.001289946268371843</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.197488887058519</v>
+        <v>0.2382243333333333</v>
       </c>
       <c r="N3">
-        <v>0.197488887058519</v>
+        <v>0.714673</v>
       </c>
       <c r="O3">
-        <v>0.02038363463858944</v>
+        <v>0.02271500130313452</v>
       </c>
       <c r="P3">
-        <v>0.02038363463858944</v>
+        <v>0.03096984518609152</v>
       </c>
       <c r="Q3">
-        <v>7.802424943629928</v>
+        <v>9.7040576173505</v>
       </c>
       <c r="R3">
-        <v>7.802424943629928</v>
+        <v>58.22434570410299</v>
       </c>
       <c r="S3">
-        <v>0.00139218482645498</v>
+        <v>0.001264742161883581</v>
       </c>
       <c r="T3">
-        <v>0.00139218482645498</v>
+        <v>0.001185112804163187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8843721734169659</v>
+        <v>1.044414666666667</v>
       </c>
       <c r="N4">
-        <v>0.8843721734169659</v>
+        <v>3.133244</v>
       </c>
       <c r="O4">
-        <v>0.09127966406598413</v>
+        <v>0.09958630246705613</v>
       </c>
       <c r="P4">
-        <v>0.09127966406598413</v>
+        <v>0.1357768960213274</v>
       </c>
       <c r="Q4">
-        <v>34.93992805415982</v>
+        <v>42.544184970214</v>
       </c>
       <c r="R4">
-        <v>34.93992805415982</v>
+        <v>255.265109821284</v>
       </c>
       <c r="S4">
-        <v>0.006234323050315667</v>
+        <v>0.005544837695377827</v>
       </c>
       <c r="T4">
-        <v>0.006234323050315667</v>
+        <v>0.005195729491624116</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H5">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I5">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J5">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.24237150804453</v>
+        <v>0.373449</v>
       </c>
       <c r="N5">
-        <v>0.24237150804453</v>
+        <v>1.120347</v>
       </c>
       <c r="O5">
-        <v>0.02501615326496686</v>
+        <v>0.03560884987254709</v>
       </c>
       <c r="P5">
-        <v>0.02501615326496686</v>
+        <v>0.04854943889681305</v>
       </c>
       <c r="Q5">
-        <v>9.575655259181673</v>
+        <v>15.2124283965195</v>
       </c>
       <c r="R5">
-        <v>9.575655259181673</v>
+        <v>91.27457037911699</v>
       </c>
       <c r="S5">
-        <v>0.001708581889798292</v>
+        <v>0.001982655125966399</v>
       </c>
       <c r="T5">
-        <v>0.001708581889798292</v>
+        <v>0.001857825291854896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H6">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I6">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J6">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.98850705384629</v>
+        <v>0.4452603333333334</v>
       </c>
       <c r="N6">
-        <v>7.98850705384629</v>
+        <v>1.335781</v>
       </c>
       <c r="O6">
-        <v>0.8245264405442058</v>
+        <v>0.04245615429112661</v>
       </c>
       <c r="P6">
-        <v>0.8245264405442058</v>
+        <v>0.05788511777067627</v>
       </c>
       <c r="Q6">
-        <v>315.6113117434535</v>
+        <v>18.1376598642485</v>
       </c>
       <c r="R6">
-        <v>315.6113117434535</v>
+        <v>108.825959185491</v>
       </c>
       <c r="S6">
-        <v>0.05631445126883478</v>
+        <v>0.002363904260750037</v>
       </c>
       <c r="T6">
-        <v>0.05631445126883478</v>
+        <v>0.002215070622029805</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>330.770233336439</v>
+        <v>40.7349555</v>
       </c>
       <c r="H7">
-        <v>330.770233336439</v>
+        <v>81.469911</v>
       </c>
       <c r="I7">
-        <v>0.5718139577408378</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J7">
-        <v>0.5718139577408378</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.375860598353964</v>
+        <v>7.997239</v>
       </c>
       <c r="N7">
-        <v>0.375860598353964</v>
+        <v>15.994478</v>
       </c>
       <c r="O7">
-        <v>0.03879410748625375</v>
+        <v>0.7625471830045831</v>
       </c>
       <c r="P7">
-        <v>0.03879410748625375</v>
+        <v>0.6931093066232342</v>
       </c>
       <c r="Q7">
-        <v>124.3234978195143</v>
+        <v>325.7671747878645</v>
       </c>
       <c r="R7">
-        <v>124.3234978195143</v>
+        <v>1303.068699151458</v>
       </c>
       <c r="S7">
-        <v>0.02218301213873822</v>
+        <v>0.04245764989845573</v>
       </c>
       <c r="T7">
-        <v>0.02218301213873822</v>
+        <v>0.02652298418116594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J8">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.197488887058519</v>
+        <v>0.388946</v>
       </c>
       <c r="N8">
-        <v>0.197488887058519</v>
+        <v>0.777892</v>
       </c>
       <c r="O8">
-        <v>0.02038363463858944</v>
+        <v>0.03708650906155245</v>
       </c>
       <c r="P8">
-        <v>0.02038363463858944</v>
+        <v>0.03370939550185763</v>
       </c>
       <c r="Q8">
-        <v>65.32344525369997</v>
+        <v>136.2835305303733</v>
       </c>
       <c r="R8">
-        <v>65.32344525369997</v>
+        <v>817.70118318224</v>
       </c>
       <c r="S8">
-        <v>0.01165564679583506</v>
+        <v>0.01776200573293502</v>
       </c>
       <c r="T8">
-        <v>0.01165564679583506</v>
+        <v>0.01664369312269269</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J9">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8843721734169659</v>
+        <v>0.2382243333333333</v>
       </c>
       <c r="N9">
-        <v>0.8843721734169659</v>
+        <v>0.714673</v>
       </c>
       <c r="O9">
-        <v>0.09127966406598413</v>
+        <v>0.02271500130313452</v>
       </c>
       <c r="P9">
-        <v>0.09127966406598413</v>
+        <v>0.03096984518609152</v>
       </c>
       <c r="Q9">
-        <v>292.5239901573835</v>
+        <v>83.47187837106223</v>
       </c>
       <c r="R9">
-        <v>292.5239901573835</v>
+        <v>751.2469053395599</v>
       </c>
       <c r="S9">
-        <v>0.05219498597082452</v>
+        <v>0.01087899599016648</v>
       </c>
       <c r="T9">
-        <v>0.05219498597082452</v>
+        <v>0.01529106623422551</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H10">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J10">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.24237150804453</v>
+        <v>1.044414666666667</v>
       </c>
       <c r="N10">
-        <v>0.24237150804453</v>
+        <v>3.133244</v>
       </c>
       <c r="O10">
-        <v>0.02501615326496686</v>
+        <v>0.09958630246705613</v>
       </c>
       <c r="P10">
-        <v>0.02501615326496686</v>
+        <v>0.1357768960213274</v>
       </c>
       <c r="Q10">
-        <v>80.16928026999379</v>
+        <v>365.9544464039645</v>
       </c>
       <c r="R10">
-        <v>80.16928026999379</v>
+        <v>3293.59001763568</v>
       </c>
       <c r="S10">
-        <v>0.01430458560589208</v>
+        <v>0.04769530808105689</v>
       </c>
       <c r="T10">
-        <v>0.01430458560589208</v>
+        <v>0.06703854984306064</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H11">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J11">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>7.98850705384629</v>
+        <v>0.373449</v>
       </c>
       <c r="N11">
-        <v>7.98850705384629</v>
+        <v>1.120347</v>
       </c>
       <c r="O11">
-        <v>0.8245264405442058</v>
+        <v>0.03560884987254709</v>
       </c>
       <c r="P11">
-        <v>0.8245264405442058</v>
+        <v>0.04854943889681305</v>
       </c>
       <c r="Q11">
-        <v>2642.360342210526</v>
+        <v>130.85350715276</v>
       </c>
       <c r="R11">
-        <v>2642.360342210526</v>
+        <v>1177.68156437484</v>
       </c>
       <c r="S11">
-        <v>0.4714757272295478</v>
+        <v>0.01705430388526646</v>
       </c>
       <c r="T11">
-        <v>0.4714757272295478</v>
+        <v>0.02397082327486256</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>124.704849261112</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H12">
-        <v>124.704849261112</v>
+        <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.2155815917478311</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J12">
-        <v>0.2155815917478311</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.375860598353964</v>
+        <v>0.4452603333333334</v>
       </c>
       <c r="N12">
-        <v>0.375860598353964</v>
+        <v>1.335781</v>
       </c>
       <c r="O12">
-        <v>0.03879410748625375</v>
+        <v>0.04245615429112661</v>
       </c>
       <c r="P12">
-        <v>0.03879410748625375</v>
+        <v>0.05788511777067627</v>
       </c>
       <c r="Q12">
-        <v>46.87163926092244</v>
+        <v>156.0156171597022</v>
       </c>
       <c r="R12">
-        <v>46.87163926092244</v>
+        <v>1404.14055443732</v>
       </c>
       <c r="S12">
-        <v>0.008363295442323037</v>
+        <v>0.02033371366029018</v>
       </c>
       <c r="T12">
-        <v>0.008363295442323037</v>
+        <v>0.02858022584513475</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>124.704849261112</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H13">
-        <v>124.704849261112</v>
+        <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.2155815917478311</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J13">
-        <v>0.2155815917478311</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.197488887058519</v>
+        <v>7.997239</v>
       </c>
       <c r="N13">
-        <v>0.197488887058519</v>
+        <v>15.994478</v>
       </c>
       <c r="O13">
-        <v>0.02038363463858944</v>
+        <v>0.7625471830045831</v>
       </c>
       <c r="P13">
-        <v>0.02038363463858944</v>
+        <v>0.6931093066232342</v>
       </c>
       <c r="Q13">
-        <v>24.62782189137738</v>
+        <v>2802.167821279027</v>
       </c>
       <c r="R13">
-        <v>24.62782189137738</v>
+        <v>16813.00692767416</v>
       </c>
       <c r="S13">
-        <v>0.004394336400993339</v>
+        <v>0.3652100933436814</v>
       </c>
       <c r="T13">
-        <v>0.004394336400993339</v>
+        <v>0.3422161218905189</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H14">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I14">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J14">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8843721734169659</v>
+        <v>0.388946</v>
       </c>
       <c r="N14">
-        <v>0.8843721734169659</v>
+        <v>0.777892</v>
       </c>
       <c r="O14">
-        <v>0.09127966406598413</v>
+        <v>0.03708650906155245</v>
       </c>
       <c r="P14">
-        <v>0.09127966406598413</v>
+        <v>0.03370939550185763</v>
       </c>
       <c r="Q14">
-        <v>110.2854985766847</v>
+        <v>94.83619884668667</v>
       </c>
       <c r="R14">
-        <v>110.2854985766847</v>
+        <v>569.01719308012</v>
       </c>
       <c r="S14">
-        <v>0.01967821527355216</v>
+        <v>0.01236012232035034</v>
       </c>
       <c r="T14">
-        <v>0.01967821527355216</v>
+        <v>0.01158191737757435</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H15">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I15">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J15">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.24237150804453</v>
+        <v>0.2382243333333333</v>
       </c>
       <c r="N15">
-        <v>0.24237150804453</v>
+        <v>0.714673</v>
       </c>
       <c r="O15">
-        <v>0.02501615326496686</v>
+        <v>0.02271500130313452</v>
       </c>
       <c r="P15">
-        <v>0.02501615326496686</v>
+        <v>0.03096984518609152</v>
       </c>
       <c r="Q15">
-        <v>30.22490237588151</v>
+        <v>58.08593029911445</v>
       </c>
       <c r="R15">
-        <v>30.22490237588151</v>
+        <v>522.7733726920301</v>
       </c>
       <c r="S15">
-        <v>0.005393022140269259</v>
+        <v>0.007570413115661075</v>
       </c>
       <c r="T15">
-        <v>0.005393022140269259</v>
+        <v>0.01064065916346124</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H16">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I16">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J16">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.98850705384629</v>
+        <v>1.044414666666667</v>
       </c>
       <c r="N16">
-        <v>7.98850705384629</v>
+        <v>3.133244</v>
       </c>
       <c r="O16">
-        <v>0.8245264405442058</v>
+        <v>0.09958630246705613</v>
       </c>
       <c r="P16">
-        <v>0.8245264405442058</v>
+        <v>0.1357768960213274</v>
       </c>
       <c r="Q16">
-        <v>996.2055679712316</v>
+        <v>254.6582739156489</v>
       </c>
       <c r="R16">
-        <v>996.2055679712316</v>
+        <v>2291.92446524084</v>
       </c>
       <c r="S16">
-        <v>0.1777527224906933</v>
+        <v>0.03318993647747483</v>
       </c>
       <c r="T16">
-        <v>0.1777527224906933</v>
+        <v>0.04665040022494198</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H17">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I17">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J17">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.375860598353964</v>
+        <v>0.373449</v>
       </c>
       <c r="N17">
-        <v>0.375860598353964</v>
+        <v>1.120347</v>
       </c>
       <c r="O17">
-        <v>0.03879410748625375</v>
+        <v>0.03560884987254709</v>
       </c>
       <c r="P17">
-        <v>0.03879410748625375</v>
+        <v>0.04854943889681305</v>
       </c>
       <c r="Q17">
-        <v>14.79374249445288</v>
+        <v>91.05758543113001</v>
       </c>
       <c r="R17">
-        <v>14.79374249445288</v>
+        <v>819.51826888017</v>
       </c>
       <c r="S17">
-        <v>0.002639643953778019</v>
+        <v>0.01186765083176717</v>
       </c>
       <c r="T17">
-        <v>0.002639643953778019</v>
+        <v>0.01668067853662628</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H18">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I18">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J18">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.197488887058519</v>
+        <v>0.4452603333333334</v>
       </c>
       <c r="N18">
-        <v>0.197488887058519</v>
+        <v>1.335781</v>
       </c>
       <c r="O18">
-        <v>0.02038363463858944</v>
+        <v>0.04245615429112661</v>
       </c>
       <c r="P18">
-        <v>0.02038363463858944</v>
+        <v>0.05788511777067627</v>
       </c>
       <c r="Q18">
-        <v>7.773093943484923</v>
+        <v>108.5672497224345</v>
       </c>
       <c r="R18">
-        <v>7.773093943484923</v>
+        <v>977.1052475019102</v>
       </c>
       <c r="S18">
-        <v>0.001386951303077103</v>
+        <v>0.01414970763139347</v>
       </c>
       <c r="T18">
-        <v>0.001386951303077103</v>
+        <v>0.01988824306784701</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H19">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I19">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J19">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8843721734169659</v>
+        <v>7.997239</v>
       </c>
       <c r="N19">
-        <v>0.8843721734169659</v>
+        <v>15.994478</v>
       </c>
       <c r="O19">
-        <v>0.09127966406598413</v>
+        <v>0.7625471830045831</v>
       </c>
       <c r="P19">
-        <v>0.09127966406598413</v>
+        <v>0.6931093066232342</v>
       </c>
       <c r="Q19">
-        <v>34.80858132000639</v>
+        <v>1949.956415616763</v>
       </c>
       <c r="R19">
-        <v>34.80858132000639</v>
+        <v>11699.73849370058</v>
       </c>
       <c r="S19">
-        <v>0.006210886883788733</v>
+        <v>0.2541402977921773</v>
       </c>
       <c r="T19">
-        <v>0.006210886883788733</v>
+        <v>0.2381393852789727</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H20">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I20">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J20">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.24237150804453</v>
+        <v>0.388946</v>
       </c>
       <c r="N20">
-        <v>0.24237150804453</v>
+        <v>0.777892</v>
       </c>
       <c r="O20">
-        <v>0.02501615326496686</v>
+        <v>0.03708650906155245</v>
       </c>
       <c r="P20">
-        <v>0.02501615326496686</v>
+        <v>0.03370939550185763</v>
       </c>
       <c r="Q20">
-        <v>9.539658303385913</v>
+        <v>18.956175552124</v>
       </c>
       <c r="R20">
-        <v>9.539658303385913</v>
+        <v>113.737053312744</v>
       </c>
       <c r="S20">
-        <v>0.001702158961539515</v>
+        <v>0.002470582450579451</v>
       </c>
       <c r="T20">
-        <v>0.001702158961539515</v>
+        <v>0.002315032252551795</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H21">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I21">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J21">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.98850705384629</v>
+        <v>0.2382243333333333</v>
       </c>
       <c r="N21">
-        <v>7.98850705384629</v>
+        <v>0.714673</v>
       </c>
       <c r="O21">
-        <v>0.8245264405442058</v>
+        <v>0.02271500130313452</v>
       </c>
       <c r="P21">
-        <v>0.8245264405442058</v>
+        <v>0.03096984518609152</v>
       </c>
       <c r="Q21">
-        <v>314.4248606724861</v>
+        <v>11.61040937162067</v>
       </c>
       <c r="R21">
-        <v>314.4248606724861</v>
+        <v>104.493684344586</v>
       </c>
       <c r="S21">
-        <v>0.05610275308650486</v>
+        <v>0.001513199408746517</v>
       </c>
       <c r="T21">
-        <v>0.05610275308650486</v>
+        <v>0.002126890423128081</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.4013115348323</v>
+        <v>48.737294</v>
       </c>
       <c r="H22">
-        <v>22.4013115348323</v>
+        <v>146.211882</v>
       </c>
       <c r="I22">
-        <v>0.03872592306179204</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J22">
-        <v>0.03872592306179204</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.375860598353964</v>
+        <v>1.044414666666667</v>
       </c>
       <c r="N22">
-        <v>0.375860598353964</v>
+        <v>3.133244</v>
       </c>
       <c r="O22">
-        <v>0.03879410748625375</v>
+        <v>0.09958630246705613</v>
       </c>
       <c r="P22">
-        <v>0.03879410748625375</v>
+        <v>0.1357768960213274</v>
       </c>
       <c r="Q22">
-        <v>8.419770357395624</v>
+        <v>50.90194466724533</v>
       </c>
       <c r="R22">
-        <v>8.419770357395624</v>
+        <v>458.117502005208</v>
       </c>
       <c r="S22">
-        <v>0.001502337621763553</v>
+        <v>0.006634115138333995</v>
       </c>
       <c r="T22">
-        <v>0.001502337621763553</v>
+        <v>0.009324637501239757</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.4013115348323</v>
+        <v>48.737294</v>
       </c>
       <c r="H23">
-        <v>22.4013115348323</v>
+        <v>146.211882</v>
       </c>
       <c r="I23">
-        <v>0.03872592306179204</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J23">
-        <v>0.03872592306179204</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.197488887058519</v>
+        <v>0.373449</v>
       </c>
       <c r="N23">
-        <v>0.197488887058519</v>
+        <v>1.120347</v>
       </c>
       <c r="O23">
-        <v>0.02038363463858944</v>
+        <v>0.03560884987254709</v>
       </c>
       <c r="P23">
-        <v>0.02038363463858944</v>
+        <v>0.04854943889681305</v>
       </c>
       <c r="Q23">
-        <v>4.424010083665195</v>
+        <v>18.200893707006</v>
       </c>
       <c r="R23">
-        <v>4.424010083665195</v>
+        <v>163.808043363054</v>
       </c>
       <c r="S23">
-        <v>0.0007893750667336939</v>
+        <v>0.002372145607838737</v>
       </c>
       <c r="T23">
-        <v>0.0007893750667336939</v>
+        <v>0.003334189629215425</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.4013115348323</v>
+        <v>48.737294</v>
       </c>
       <c r="H24">
-        <v>22.4013115348323</v>
+        <v>146.211882</v>
       </c>
       <c r="I24">
-        <v>0.03872592306179204</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J24">
-        <v>0.03872592306179204</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8843721734169659</v>
+        <v>0.4452603333333334</v>
       </c>
       <c r="N24">
-        <v>0.8843721734169659</v>
+        <v>1.335781</v>
       </c>
       <c r="O24">
-        <v>0.09127966406598413</v>
+        <v>0.04245615429112661</v>
       </c>
       <c r="P24">
-        <v>0.09127966406598413</v>
+        <v>0.05788511777067627</v>
       </c>
       <c r="Q24">
-        <v>19.81109656945019</v>
+        <v>21.70078377220467</v>
       </c>
       <c r="R24">
-        <v>19.81109656945019</v>
+        <v>195.307053949842</v>
       </c>
       <c r="S24">
-        <v>0.003534889247725525</v>
+        <v>0.00282829072794807</v>
       </c>
       <c r="T24">
-        <v>0.003534889247725525</v>
+        <v>0.003975328319800036</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.4013115348323</v>
+        <v>48.737294</v>
       </c>
       <c r="H25">
-        <v>22.4013115348323</v>
+        <v>146.211882</v>
       </c>
       <c r="I25">
-        <v>0.03872592306179204</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J25">
-        <v>0.03872592306179204</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.24237150804453</v>
+        <v>7.997239</v>
       </c>
       <c r="N25">
-        <v>0.24237150804453</v>
+        <v>15.994478</v>
       </c>
       <c r="O25">
-        <v>0.02501615326496686</v>
+        <v>0.7625471830045831</v>
       </c>
       <c r="P25">
-        <v>0.02501615326496686</v>
+        <v>0.6931093066232342</v>
       </c>
       <c r="Q25">
-        <v>5.42943965887263</v>
+        <v>389.763788331266</v>
       </c>
       <c r="R25">
-        <v>5.42943965887263</v>
+        <v>2338.582729987596</v>
       </c>
       <c r="S25">
-        <v>0.0009687736266411044</v>
+        <v>0.05079840987306607</v>
       </c>
       <c r="T25">
-        <v>0.0009687736266411044</v>
+        <v>0.0476000941425418</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H26">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I26">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J26">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.98850705384629</v>
+        <v>0.388946</v>
       </c>
       <c r="N26">
-        <v>7.98850705384629</v>
+        <v>0.777892</v>
       </c>
       <c r="O26">
-        <v>0.8245264405442058</v>
+        <v>0.03708650906155245</v>
       </c>
       <c r="P26">
-        <v>0.8245264405442058</v>
+        <v>0.03370939550185763</v>
       </c>
       <c r="Q26">
-        <v>178.9530352114161</v>
+        <v>8.880445020842</v>
       </c>
       <c r="R26">
-        <v>178.9530352114161</v>
+        <v>53.282670125052</v>
       </c>
       <c r="S26">
-        <v>0.03193054749892816</v>
+        <v>0.00115739968547451</v>
       </c>
       <c r="T26">
-        <v>0.03193054749892816</v>
+        <v>0.00108452871117026</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>21.7135627023294</v>
+        <v>22.832077</v>
       </c>
       <c r="H27">
-        <v>21.7135627023294</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I27">
-        <v>0.037536987836641</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J27">
-        <v>0.037536987836641</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.375860598353964</v>
+        <v>0.2382243333333333</v>
       </c>
       <c r="N27">
-        <v>0.375860598353964</v>
+        <v>0.714673</v>
       </c>
       <c r="O27">
-        <v>0.03879410748625375</v>
+        <v>0.02271500130313452</v>
       </c>
       <c r="P27">
-        <v>0.03879410748625375</v>
+        <v>0.03096984518609152</v>
       </c>
       <c r="Q27">
-        <v>8.161272669693844</v>
+        <v>5.439156321940333</v>
       </c>
       <c r="R27">
-        <v>8.161272669693844</v>
+        <v>48.952406897463</v>
       </c>
       <c r="S27">
-        <v>0.001456213940844851</v>
+        <v>0.0007088921559094958</v>
       </c>
       <c r="T27">
-        <v>0.001456213940844851</v>
+        <v>0.0009963894571459572</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>21.7135627023294</v>
+        <v>22.832077</v>
       </c>
       <c r="H28">
-        <v>21.7135627023294</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I28">
-        <v>0.037536987836641</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J28">
-        <v>0.037536987836641</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.197488887058519</v>
+        <v>1.044414666666667</v>
       </c>
       <c r="N28">
-        <v>0.197488887058519</v>
+        <v>3.133244</v>
       </c>
       <c r="O28">
-        <v>0.02038363463858944</v>
+        <v>0.09958630246705613</v>
       </c>
       <c r="P28">
-        <v>0.02038363463858944</v>
+        <v>0.1357768960213274</v>
       </c>
       <c r="Q28">
-        <v>4.288187332158402</v>
+        <v>23.84615608926267</v>
       </c>
       <c r="R28">
-        <v>4.288187332158402</v>
+        <v>214.615404803364</v>
       </c>
       <c r="S28">
-        <v>0.0007651402454952661</v>
+        <v>0.003107899828523664</v>
       </c>
       <c r="T28">
-        <v>0.0007651402454952661</v>
+        <v>0.00436833529217674</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>21.7135627023294</v>
+        <v>22.832077</v>
       </c>
       <c r="H29">
-        <v>21.7135627023294</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I29">
-        <v>0.037536987836641</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J29">
-        <v>0.037536987836641</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.8843721734169659</v>
+        <v>0.373449</v>
       </c>
       <c r="N29">
-        <v>0.8843721734169659</v>
+        <v>1.120347</v>
       </c>
       <c r="O29">
-        <v>0.09127966406598413</v>
+        <v>0.03560884987254709</v>
       </c>
       <c r="P29">
-        <v>0.09127966406598413</v>
+        <v>0.04854943889681305</v>
       </c>
       <c r="Q29">
-        <v>19.20287063968462</v>
+        <v>8.526616323572998</v>
       </c>
       <c r="R29">
-        <v>19.20287063968462</v>
+        <v>76.739546912157</v>
       </c>
       <c r="S29">
-        <v>0.003426363639777523</v>
+        <v>0.001111284741688487</v>
       </c>
       <c r="T29">
-        <v>0.003426363639777523</v>
+        <v>0.001561975811518137</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>21.7135627023294</v>
+        <v>22.832077</v>
       </c>
       <c r="H30">
-        <v>21.7135627023294</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I30">
-        <v>0.037536987836641</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J30">
-        <v>0.037536987836641</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.24237150804453</v>
+        <v>0.4452603333333334</v>
       </c>
       <c r="N30">
-        <v>0.24237150804453</v>
+        <v>1.335781</v>
       </c>
       <c r="O30">
-        <v>0.02501615326496686</v>
+        <v>0.04245615429112661</v>
       </c>
       <c r="P30">
-        <v>0.02501615326496686</v>
+        <v>0.05788511777067627</v>
       </c>
       <c r="Q30">
-        <v>5.262748937183037</v>
+        <v>10.16621821571233</v>
       </c>
       <c r="R30">
-        <v>5.262748937183037</v>
+        <v>91.49596394141101</v>
       </c>
       <c r="S30">
-        <v>0.000939031040826608</v>
+        <v>0.001324976140015003</v>
       </c>
       <c r="T30">
-        <v>0.000939031040826608</v>
+        <v>0.001862331591449354</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>21.7135627023294</v>
+        <v>22.832077</v>
       </c>
       <c r="H31">
-        <v>21.7135627023294</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I31">
-        <v>0.037536987836641</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J31">
-        <v>0.037536987836641</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>7.98850705384629</v>
+        <v>7.997239</v>
       </c>
       <c r="N31">
-        <v>7.98850705384629</v>
+        <v>15.994478</v>
       </c>
       <c r="O31">
-        <v>0.8245264405442058</v>
+        <v>0.7625471830045831</v>
       </c>
       <c r="P31">
-        <v>0.8245264405442058</v>
+        <v>0.6931093066232342</v>
       </c>
       <c r="Q31">
-        <v>173.4589488116922</v>
+        <v>182.593576635403</v>
       </c>
       <c r="R31">
-        <v>173.4589488116922</v>
+        <v>1095.561459812418</v>
       </c>
       <c r="S31">
-        <v>0.03095023896969675</v>
+        <v>0.02379765289594052</v>
       </c>
       <c r="T31">
-        <v>0.03095023896969675</v>
+        <v>0.02229933025558956</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>25.082339</v>
+      </c>
+      <c r="H32">
+        <v>50.164678</v>
+      </c>
+      <c r="I32">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J32">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.388946</v>
+      </c>
+      <c r="N32">
+        <v>0.777892</v>
+      </c>
+      <c r="O32">
+        <v>0.03708650906155245</v>
+      </c>
+      <c r="P32">
+        <v>0.03370939550185763</v>
+      </c>
+      <c r="Q32">
+        <v>9.755675424694001</v>
+      </c>
+      <c r="R32">
+        <v>39.022701698776</v>
+      </c>
+      <c r="S32">
+        <v>0.001271469576314281</v>
+      </c>
+      <c r="T32">
+        <v>0.0007942777694967052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>25.082339</v>
+      </c>
+      <c r="H33">
+        <v>50.164678</v>
+      </c>
+      <c r="I33">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J33">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.2382243333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.714673</v>
+      </c>
+      <c r="O33">
+        <v>0.02271500130313452</v>
+      </c>
+      <c r="P33">
+        <v>0.03096984518609152</v>
+      </c>
+      <c r="Q33">
+        <v>5.975223486715667</v>
+      </c>
+      <c r="R33">
+        <v>35.851340920294</v>
+      </c>
+      <c r="S33">
+        <v>0.0007787584707673696</v>
+      </c>
+      <c r="T33">
+        <v>0.0007297271039675415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>25.082339</v>
+      </c>
+      <c r="H34">
+        <v>50.164678</v>
+      </c>
+      <c r="I34">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J34">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.044414666666667</v>
+      </c>
+      <c r="N34">
+        <v>3.133244</v>
+      </c>
+      <c r="O34">
+        <v>0.09958630246705613</v>
+      </c>
+      <c r="P34">
+        <v>0.1357768960213274</v>
+      </c>
+      <c r="Q34">
+        <v>26.19636272590533</v>
+      </c>
+      <c r="R34">
+        <v>157.178176355432</v>
+      </c>
+      <c r="S34">
+        <v>0.003414205246288913</v>
+      </c>
+      <c r="T34">
+        <v>0.003199243668284202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>25.082339</v>
+      </c>
+      <c r="H35">
+        <v>50.164678</v>
+      </c>
+      <c r="I35">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J35">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.373449</v>
+      </c>
+      <c r="N35">
+        <v>1.120347</v>
+      </c>
+      <c r="O35">
+        <v>0.03560884987254709</v>
+      </c>
+      <c r="P35">
+        <v>0.04854943889681305</v>
+      </c>
+      <c r="Q35">
+        <v>9.366974417210999</v>
+      </c>
+      <c r="R35">
+        <v>56.201846503266</v>
+      </c>
+      <c r="S35">
+        <v>0.001220809680019828</v>
+      </c>
+      <c r="T35">
+        <v>0.001143946352735759</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>25.082339</v>
+      </c>
+      <c r="H36">
+        <v>50.164678</v>
+      </c>
+      <c r="I36">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J36">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.4452603333333334</v>
+      </c>
+      <c r="N36">
+        <v>1.335781</v>
+      </c>
+      <c r="O36">
+        <v>0.04245615429112661</v>
+      </c>
+      <c r="P36">
+        <v>0.05788511777067627</v>
+      </c>
+      <c r="Q36">
+        <v>11.16817062391967</v>
+      </c>
+      <c r="R36">
+        <v>67.00902374351801</v>
+      </c>
+      <c r="S36">
+        <v>0.001455561870729841</v>
+      </c>
+      <c r="T36">
+        <v>0.001363918324415316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>25.082339</v>
+      </c>
+      <c r="H37">
+        <v>50.164678</v>
+      </c>
+      <c r="I37">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J37">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>7.997239</v>
+      </c>
+      <c r="N37">
+        <v>15.994478</v>
+      </c>
+      <c r="O37">
+        <v>0.7625471830045831</v>
+      </c>
+      <c r="P37">
+        <v>0.6931093066232342</v>
+      </c>
+      <c r="Q37">
+        <v>200.589459662021</v>
+      </c>
+      <c r="R37">
+        <v>802.357838648084</v>
+      </c>
+      <c r="S37">
+        <v>0.02614307920126198</v>
+      </c>
+      <c r="T37">
+        <v>0.01633139087444545</v>
       </c>
     </row>
   </sheetData>
